--- a/Data/MRG vs Freq-Dep-MRG/Block Threshold Comparison/combinedData.xlsx
+++ b/Data/MRG vs Freq-Dep-MRG/Block Threshold Comparison/combinedData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Stuff\Code\Nerve-Block-Modeling\Data\MRG vs Freq-Dep-MRG\Block Threshold Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FC003-3A84-417F-9AB1-B11995CF214A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3775216C-9A2A-42F9-93F1-B7E1D8958978}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{8CD41C50-7700-4943-9E79-E6140E0C9B87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{8CD41C50-7700-4943-9E79-E6140E0C9B87}"/>
   </bookViews>
   <sheets>
     <sheet name="file0" sheetId="1" r:id="rId1"/>
@@ -1388,16 +1388,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502919</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7508,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0D6F19-4DC3-4FF2-B180-73020B6DABD4}">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:H363"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10401,7 +10401,7 @@
   <dimension ref="A1:H363"/>
   <sheetViews>
     <sheetView topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:H363"/>
+      <selection activeCell="D370" sqref="D370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18060,7 +18060,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
